--- a/NEW_alignment/FT269NOM_pro_end.xlsx
+++ b/NEW_alignment/FT269NOM_pro_end.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scher\OneDrive\ドキュメント\git\Ryohei.W\loc\NEW_alignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scher\Documents\TMR観察\NEW_alignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB89101-97BD-4819-9774-C92863D28AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5EF421-5EE0-41B7-8D44-01326C6151D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{98AC8370-6BC3-4FD4-8542-21C3282EB744}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{98AC8370-6BC3-4FD4-8542-21C3282EB744}"/>
   </bookViews>
   <sheets>
     <sheet name="4F2_HUMAN" sheetId="18" r:id="rId1"/>
@@ -37,10 +37,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7087" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7108" uniqueCount="34">
   <si>
     <t>&gt;4F2_HUMAN</t>
   </si>
@@ -180,7 +180,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,6 +199,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -214,7 +220,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -228,6 +234,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -544,1867 +559,1919 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E037C13-4681-43BD-8E65-9B81ACB5E93D}">
-  <dimension ref="A1:AI21"/>
+  <dimension ref="A1:AJ21"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="33" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" customWidth="1"/>
+    <col min="3" max="34" width="4.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="C1">
         <v>189</v>
       </c>
-      <c r="C1">
+      <c r="D1">
         <v>190</v>
       </c>
-      <c r="D1">
+      <c r="E1">
         <v>191</v>
       </c>
-      <c r="E1">
+      <c r="F1">
         <v>192</v>
       </c>
-      <c r="F1">
+      <c r="G1">
         <v>193</v>
       </c>
-      <c r="G1">
+      <c r="H1">
         <v>194</v>
       </c>
-      <c r="H1">
+      <c r="I1">
         <v>195</v>
       </c>
-      <c r="I1">
+      <c r="J1">
         <v>196</v>
       </c>
-      <c r="J1">
+      <c r="K1">
         <v>197</v>
       </c>
-      <c r="K1">
+      <c r="L1">
         <v>198</v>
       </c>
-      <c r="L1">
+      <c r="M1">
         <v>199</v>
       </c>
-      <c r="M1">
+      <c r="N1">
         <v>200</v>
       </c>
-      <c r="N1">
+      <c r="O1">
         <v>201</v>
       </c>
-      <c r="O1">
+      <c r="P1">
         <v>202</v>
       </c>
-      <c r="P1">
+      <c r="Q1">
         <v>203</v>
       </c>
-      <c r="Q1">
+      <c r="R1">
         <v>204</v>
       </c>
-      <c r="R1">
+      <c r="S1">
         <v>205</v>
       </c>
-      <c r="S1">
+      <c r="T1">
         <v>206</v>
       </c>
-      <c r="T1">
+      <c r="U1">
         <v>207</v>
       </c>
-      <c r="U1">
+      <c r="V1">
         <v>208</v>
       </c>
-      <c r="V1">
+      <c r="W1">
         <v>209</v>
       </c>
-      <c r="W1">
+      <c r="X1">
         <v>210</v>
       </c>
-      <c r="X1">
+      <c r="Y1">
         <v>211</v>
       </c>
-      <c r="Y1">
+      <c r="Z1">
         <v>212</v>
       </c>
-      <c r="Z1">
+      <c r="AA1">
         <v>213</v>
       </c>
-      <c r="AA1">
+      <c r="AB1">
         <v>214</v>
       </c>
-      <c r="AB1">
+      <c r="AC1">
         <v>215</v>
       </c>
-      <c r="AC1">
+      <c r="AD1">
         <v>216</v>
       </c>
-      <c r="AD1">
+      <c r="AE1">
         <v>217</v>
       </c>
-      <c r="AE1">
+      <c r="AF1">
         <v>218</v>
       </c>
-      <c r="AF1">
+      <c r="AG1">
         <v>219</v>
       </c>
-      <c r="AG1">
+      <c r="AH1">
         <v>220</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="B2" s="1">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="C2" s="1">
         <v>190</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>191</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>192</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>193</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>194</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>195</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>196</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>197</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>198</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>199</v>
       </c>
-      <c r="L2" s="1">
+      <c r="M2" s="1">
         <v>200</v>
       </c>
-      <c r="M2" s="1">
+      <c r="N2" s="1">
         <v>201</v>
       </c>
-      <c r="N2" s="1">
+      <c r="O2" s="1">
         <v>202</v>
       </c>
-      <c r="O2" s="1">
+      <c r="P2" s="1">
         <v>203</v>
       </c>
-      <c r="P2" s="1">
+      <c r="Q2" s="1">
         <v>204</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="R2" s="1">
         <v>205</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>206</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>207</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>208</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>209</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>210</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>211</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>212</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>213</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>214</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>215</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>216</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>217</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>218</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>219</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>220</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>202</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>5.7</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="G3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="T3" t="s">
-        <v>7</v>
-      </c>
-      <c r="U3" t="s">
-        <v>9</v>
-      </c>
-      <c r="V3" t="s">
+      <c r="J3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="W3" t="s">
-        <v>9</v>
-      </c>
-      <c r="X3" t="s">
+      <c r="X3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Y3" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD3" t="s">
+      <c r="Z3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>203</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>6.2333333333333298</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="G4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N4" t="s">
-        <v>3</v>
-      </c>
-      <c r="O4" t="s">
-        <v>18</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="U4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V4" t="s">
+      <c r="J4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="W4" t="s">
-        <v>9</v>
-      </c>
-      <c r="X4" t="s">
+      <c r="X4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Y4" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD4" t="s">
+      <c r="Z4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AH4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>204</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <v>7.0208333333333304</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="G5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M5" t="s">
-        <v>3</v>
-      </c>
-      <c r="N5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O5" t="s">
-        <v>18</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V5" t="s">
+      <c r="J5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="W5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="W5" t="s">
-        <v>9</v>
-      </c>
-      <c r="X5" t="s">
+      <c r="X5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Y5" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD5" t="s">
+      <c r="Z5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AH5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>205</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <v>6.1441666666666697</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="G6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" t="s">
-        <v>5</v>
-      </c>
-      <c r="L6" t="s">
-        <v>4</v>
-      </c>
-      <c r="M6" t="s">
-        <v>3</v>
-      </c>
-      <c r="N6" t="s">
-        <v>3</v>
-      </c>
-      <c r="O6" t="s">
-        <v>18</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V6" s="4" t="s">
+      <c r="J6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="W6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="W6" t="s">
-        <v>9</v>
-      </c>
-      <c r="X6" t="s">
+      <c r="X6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Y6" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD6" t="s">
+      <c r="Z6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AH6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>302</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7">
+        <v>6.6470833333333301</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="G7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I7" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" t="s">
-        <v>5</v>
-      </c>
-      <c r="L7" t="s">
-        <v>4</v>
-      </c>
-      <c r="M7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="T7" t="s">
-        <v>7</v>
-      </c>
-      <c r="U7" t="s">
-        <v>9</v>
-      </c>
-      <c r="V7" t="s">
+      <c r="J7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="W7" t="s">
-        <v>9</v>
-      </c>
-      <c r="X7" t="s">
+      <c r="X7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD7" t="s">
+      <c r="Z7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AH7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>303</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8">
+        <v>6.5823611111111102</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="G8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I8" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" t="s">
-        <v>5</v>
-      </c>
-      <c r="L8" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="U8" t="s">
-        <v>9</v>
-      </c>
-      <c r="V8" t="s">
+      <c r="J8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="W8" t="s">
-        <v>9</v>
-      </c>
-      <c r="X8" t="s">
+      <c r="X8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Y8" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD8" t="s">
+      <c r="Z8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AH8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>304</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="7">
+        <v>7.1455902777777798</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="G9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I9" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" t="s">
-        <v>3</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V9" t="s">
+      <c r="J9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="V9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="W9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="W9" t="s">
-        <v>9</v>
-      </c>
-      <c r="X9" t="s">
+      <c r="X9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Y9" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD9" t="s">
+      <c r="Z9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AF9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AH9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>305</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10">
+        <v>6.2091180555555496</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="G10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I10" t="s">
-        <v>1</v>
-      </c>
-      <c r="J10" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10" t="s">
-        <v>3</v>
-      </c>
-      <c r="N10" t="s">
-        <v>3</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V10" s="4" t="s">
+      <c r="J10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="V10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="W10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="W10" t="s">
-        <v>9</v>
-      </c>
-      <c r="X10" t="s">
+      <c r="X10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Y10" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD10" t="s">
+      <c r="Z10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AF10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AG10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AH10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>402</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11">
+        <v>6.6045590277777801</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="G11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I11" t="s">
-        <v>1</v>
-      </c>
-      <c r="J11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K11" t="s">
-        <v>5</v>
-      </c>
-      <c r="L11" t="s">
-        <v>4</v>
-      </c>
-      <c r="M11" t="s">
-        <v>3</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="S11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="T11" t="s">
-        <v>7</v>
-      </c>
-      <c r="U11" t="s">
-        <v>9</v>
-      </c>
-      <c r="V11" t="s">
+      <c r="J11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="W11" t="s">
-        <v>9</v>
-      </c>
-      <c r="X11" t="s">
+      <c r="X11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Y11" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD11" t="s">
+      <c r="Z11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AF11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AG11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AH11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AH11" s="2"/>
+      <c r="AI11" s="2"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>403</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12">
+        <v>6.53485300925926</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="G12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I12" t="s">
-        <v>1</v>
-      </c>
-      <c r="J12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K12" t="s">
-        <v>5</v>
-      </c>
-      <c r="L12" t="s">
-        <v>4</v>
-      </c>
-      <c r="M12" t="s">
-        <v>3</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="S12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="T12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="U12" t="s">
-        <v>9</v>
-      </c>
-      <c r="V12" t="s">
+      <c r="J12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="W12" t="s">
-        <v>9</v>
-      </c>
-      <c r="X12" t="s">
+      <c r="X12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Y12" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD12" t="s">
+      <c r="Z12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AF12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AG12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AH12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>404</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13">
+        <v>7.0962132523148096</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="G13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I13" t="s">
-        <v>1</v>
-      </c>
-      <c r="J13" t="s">
-        <v>4</v>
-      </c>
-      <c r="K13" t="s">
-        <v>5</v>
-      </c>
-      <c r="L13" t="s">
-        <v>4</v>
-      </c>
-      <c r="M13" t="s">
-        <v>3</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="S13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="T13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="U13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V13" t="s">
+      <c r="J13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="U13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="V13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="W13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="W13" t="s">
-        <v>9</v>
-      </c>
-      <c r="X13" t="s">
+      <c r="X13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Y13" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD13" t="s">
+      <c r="Z13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AF13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AG13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AH13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>405</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14">
+        <v>6.1592426504629598</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F14" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="G14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I14" t="s">
-        <v>1</v>
-      </c>
-      <c r="J14" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" t="s">
-        <v>3</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="S14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="T14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="U14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V14" s="4" t="s">
+      <c r="J14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="V14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="W14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="W14" t="s">
-        <v>9</v>
-      </c>
-      <c r="X14" t="s">
+      <c r="X14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Y14" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD14" t="s">
+      <c r="Z14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AF14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AG14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AH14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AH14" s="2"/>
+      <c r="AI14" s="2"/>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>502</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15">
+        <v>6.5798311053240699</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="G15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I15" t="s">
-        <v>1</v>
-      </c>
-      <c r="J15" t="s">
-        <v>4</v>
-      </c>
-      <c r="K15" t="s">
-        <v>5</v>
-      </c>
-      <c r="L15" t="s">
-        <v>4</v>
-      </c>
-      <c r="M15" t="s">
-        <v>3</v>
-      </c>
-      <c r="N15" t="s">
-        <v>3</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="T15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="U15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V15" t="s">
+      <c r="J15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="U15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="V15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="W15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="W15" t="s">
-        <v>9</v>
-      </c>
-      <c r="X15" t="s">
+      <c r="X15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Y15" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD15" t="s">
+      <c r="Z15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AF15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AG15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AH15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AH15" t="s">
-        <v>5</v>
-      </c>
       <c r="AI15" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>503</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16">
+        <v>6.5048737750771597</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="D16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="G16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I16" t="s">
-        <v>1</v>
-      </c>
-      <c r="J16" t="s">
-        <v>4</v>
-      </c>
-      <c r="K16" t="s">
-        <v>5</v>
-      </c>
-      <c r="L16" t="s">
-        <v>4</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="S16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="T16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="U16" t="s">
-        <v>9</v>
-      </c>
-      <c r="V16" t="s">
+      <c r="J16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="U16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="W16" t="s">
-        <v>9</v>
-      </c>
-      <c r="X16" t="s">
+      <c r="X16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Y16" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD16" t="s">
+      <c r="Z16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AF16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AG16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AH16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
+      <c r="AJ16" s="2"/>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>504</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17">
+        <v>7.0662184437692899</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F17" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="G17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I17" t="s">
-        <v>1</v>
-      </c>
-      <c r="J17" t="s">
-        <v>4</v>
-      </c>
-      <c r="K17" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" t="s">
-        <v>4</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="S17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="T17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="U17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V17" t="s">
+      <c r="J17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="U17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="V17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="W17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="W17" t="s">
-        <v>9</v>
-      </c>
-      <c r="X17" t="s">
+      <c r="X17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Y17" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD17" t="s">
+      <c r="Z17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AF17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AG17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AH17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
+      <c r="AJ17" s="2"/>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>505</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18">
+        <v>6.1292436887538599</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="D18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F18" t="s">
-        <v>1</v>
-      </c>
-      <c r="G18" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="G18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I18" t="s">
-        <v>1</v>
-      </c>
-      <c r="J18" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18" t="s">
-        <v>4</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="S18" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="T18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="U18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V18" s="4" t="s">
+      <c r="J18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="U18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="V18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="W18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="W18" t="s">
-        <v>9</v>
-      </c>
-      <c r="X18" t="s">
+      <c r="X18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Y18" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD18" t="s">
+      <c r="Z18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AF18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AG18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AH18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
+      <c r="AJ18" s="2"/>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -11281,1830 +11348,1847 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68098454-D206-46F0-82D6-447000026DD9}">
-  <dimension ref="A1:AG18"/>
+  <dimension ref="A1:AH18"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Y24" sqref="Y24"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="33" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" customWidth="1"/>
+    <col min="3" max="34" width="4.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>13</v>
       </c>
-      <c r="B1">
+      <c r="C1">
         <v>21</v>
       </c>
-      <c r="C1">
+      <c r="D1">
         <v>22</v>
       </c>
-      <c r="D1">
+      <c r="E1">
         <v>23</v>
       </c>
-      <c r="E1">
+      <c r="F1">
         <v>24</v>
       </c>
-      <c r="F1">
+      <c r="G1">
         <v>25</v>
       </c>
-      <c r="G1">
+      <c r="H1">
         <v>26</v>
       </c>
-      <c r="H1">
+      <c r="I1">
         <v>27</v>
       </c>
-      <c r="I1">
+      <c r="J1">
         <v>28</v>
       </c>
-      <c r="J1">
+      <c r="K1">
         <v>29</v>
       </c>
-      <c r="K1">
+      <c r="L1">
         <v>30</v>
       </c>
-      <c r="L1">
+      <c r="M1">
         <v>31</v>
       </c>
-      <c r="M1">
+      <c r="N1">
         <v>32</v>
       </c>
-      <c r="N1">
+      <c r="O1">
         <v>33</v>
       </c>
-      <c r="O1">
+      <c r="P1">
         <v>34</v>
       </c>
-      <c r="P1">
+      <c r="Q1">
         <v>35</v>
       </c>
-      <c r="Q1">
+      <c r="R1">
         <v>36</v>
       </c>
-      <c r="R1">
+      <c r="S1">
         <v>37</v>
       </c>
-      <c r="S1">
+      <c r="T1">
         <v>38</v>
       </c>
-      <c r="T1">
+      <c r="U1">
         <v>39</v>
       </c>
-      <c r="U1">
+      <c r="V1">
         <v>40</v>
       </c>
-      <c r="V1">
+      <c r="W1">
         <v>41</v>
       </c>
-      <c r="W1">
+      <c r="X1">
         <v>42</v>
       </c>
-      <c r="X1">
+      <c r="Y1">
         <v>43</v>
       </c>
-      <c r="Y1">
+      <c r="Z1">
         <v>44</v>
       </c>
-      <c r="Z1">
+      <c r="AA1">
         <v>45</v>
       </c>
-      <c r="AA1">
+      <c r="AB1">
         <v>46</v>
       </c>
-      <c r="AB1">
+      <c r="AC1">
         <v>47</v>
       </c>
-      <c r="AC1">
+      <c r="AD1">
         <v>48</v>
       </c>
-      <c r="AD1">
+      <c r="AE1">
         <v>49</v>
       </c>
-      <c r="AE1">
+      <c r="AF1">
         <v>50</v>
       </c>
-      <c r="AF1">
+      <c r="AG1">
         <v>51</v>
       </c>
-      <c r="AG1">
+      <c r="AH1">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="B2" s="1">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="C2" s="1">
         <v>22</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>23</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>24</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>25</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>26</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>27</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>28</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>29</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>30</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>31</v>
       </c>
-      <c r="L2" s="1">
+      <c r="M2" s="1">
         <v>32</v>
       </c>
-      <c r="M2" s="1">
+      <c r="N2" s="1">
         <v>33</v>
       </c>
-      <c r="N2" s="1">
+      <c r="O2" s="1">
         <v>34</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>35</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>36</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>37</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>38</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>39</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>40</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>41</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>42</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>43</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>44</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>45</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>46</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>47</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>48</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>49</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>50</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>51</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>52</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>202</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="K3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O3" t="s">
-        <v>9</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S3" s="1" t="s">
+      <c r="O3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V3" t="s">
+      <c r="V3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="W3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="W3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG3" t="s">
+      <c r="X3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>203</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" t="s">
-        <v>6</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="K4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N4" t="s">
-        <v>1</v>
-      </c>
-      <c r="O4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S4" s="1" t="s">
+      <c r="O4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="T4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="U4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="U4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V4" t="s">
+      <c r="V4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="W4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="W4" t="s">
-        <v>5</v>
-      </c>
-      <c r="X4" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG4" t="s">
+      <c r="X4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>204</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="K5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N5" t="s">
-        <v>1</v>
-      </c>
-      <c r="O5" t="s">
-        <v>9</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S5" s="1" t="s">
+      <c r="O5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="T5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="U5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="U5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="V5" t="s">
+      <c r="V5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="W5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="W5" t="s">
-        <v>5</v>
-      </c>
-      <c r="X5" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG5" t="s">
+      <c r="X5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>205</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="K6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N6" t="s">
-        <v>1</v>
-      </c>
-      <c r="O6" t="s">
-        <v>9</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S6" s="1" t="s">
+      <c r="O6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="T6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="U6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="U6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="V6" s="1" t="s">
+      <c r="V6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="W6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="W6" t="s">
-        <v>5</v>
-      </c>
-      <c r="X6" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG6" t="s">
+      <c r="X6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>302</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" t="s">
-        <v>6</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="K7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S7" t="s">
+      <c r="O7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="T7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U7" t="s">
-        <v>4</v>
-      </c>
-      <c r="V7" t="s">
+      <c r="V7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="W7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="W7" t="s">
-        <v>5</v>
-      </c>
-      <c r="X7" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG7" t="s">
+      <c r="X7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>303</v>
       </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" t="s">
-        <v>6</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="K8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S8" s="1" t="s">
+      <c r="O8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="T8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U8" t="s">
-        <v>4</v>
-      </c>
-      <c r="V8" t="s">
+      <c r="V8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="W8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="W8" t="s">
-        <v>5</v>
-      </c>
-      <c r="X8" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG8" t="s">
+      <c r="X8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>304</v>
       </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" t="s">
-        <v>6</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="K9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S9" s="1" t="s">
+      <c r="O9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="T9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="U9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="U9" t="s">
-        <v>4</v>
-      </c>
-      <c r="V9" t="s">
+      <c r="V9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="W9" t="s">
-        <v>5</v>
-      </c>
-      <c r="X9" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG9" t="s">
+      <c r="X9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>305</v>
       </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" t="s">
-        <v>6</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="K10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S10" s="1" t="s">
+      <c r="O10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="T10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="U10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="U10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="V10" t="s">
+      <c r="V10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="W10" t="s">
-        <v>5</v>
-      </c>
-      <c r="X10" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG10" t="s">
+      <c r="X10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>402</v>
       </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" t="s">
-        <v>6</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="K11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S11" s="1" t="s">
+      <c r="O11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="T11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U11" t="s">
-        <v>4</v>
-      </c>
-      <c r="V11" t="s">
+      <c r="V11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="W11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="W11" t="s">
-        <v>5</v>
-      </c>
-      <c r="X11" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG11" t="s">
+      <c r="X11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>403</v>
       </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" t="s">
-        <v>6</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="K12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N12" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S12" s="1" t="s">
+      <c r="O12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="T12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="T12" s="1" t="s">
+      <c r="U12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="U12" t="s">
-        <v>4</v>
-      </c>
-      <c r="V12" t="s">
+      <c r="V12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="W12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="W12" t="s">
-        <v>5</v>
-      </c>
-      <c r="X12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG12" t="s">
+      <c r="X12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>404</v>
       </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" t="s">
-        <v>6</v>
-      </c>
-      <c r="M13" s="4" t="s">
+      <c r="K13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S13" s="1" t="s">
+      <c r="O13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="T13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="T13" s="1" t="s">
+      <c r="U13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="U13" t="s">
-        <v>4</v>
-      </c>
-      <c r="V13" t="s">
+      <c r="V13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="W13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="W13" t="s">
-        <v>5</v>
-      </c>
-      <c r="X13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG13" t="s">
+      <c r="X13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>405</v>
       </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" t="s">
-        <v>11</v>
-      </c>
-      <c r="L14" t="s">
-        <v>6</v>
-      </c>
-      <c r="M14" t="s">
+      <c r="K14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N14" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S14" s="1" t="s">
+      <c r="O14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="T14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="T14" s="1" t="s">
+      <c r="U14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="U14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="V14" s="1" t="s">
+      <c r="V14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="W14" t="s">
-        <v>5</v>
-      </c>
-      <c r="X14" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG14" t="s">
+      <c r="X14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH14" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>502</v>
       </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J15" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" t="s">
-        <v>11</v>
-      </c>
-      <c r="L15" t="s">
-        <v>6</v>
-      </c>
-      <c r="M15" s="4" t="s">
+      <c r="K15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S15" s="1" t="s">
+      <c r="O15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="T15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U15" t="s">
-        <v>4</v>
-      </c>
-      <c r="V15" t="s">
+      <c r="V15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="W15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="W15" t="s">
-        <v>5</v>
-      </c>
-      <c r="X15" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG15" t="s">
+      <c r="X15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH15" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>503</v>
       </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" t="s">
-        <v>4</v>
-      </c>
-      <c r="H16" t="s">
-        <v>3</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J16" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" t="s">
-        <v>6</v>
-      </c>
-      <c r="M16" s="4" t="s">
+      <c r="K16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N16" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S16" s="1" t="s">
+      <c r="O16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="T16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="U16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="U16" t="s">
-        <v>4</v>
-      </c>
-      <c r="V16" t="s">
+      <c r="V16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="W16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="W16" t="s">
-        <v>5</v>
-      </c>
-      <c r="X16" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG16" t="s">
+      <c r="X16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH16" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>504</v>
       </c>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="B17" s="3"/>
+      <c r="C17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J17" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" t="s">
-        <v>11</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="M17" s="4" t="s">
+      <c r="K17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N17" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N17" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S17" s="1" t="s">
+      <c r="O17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="T17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="T17" s="1" t="s">
+      <c r="U17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="U17" t="s">
-        <v>4</v>
-      </c>
-      <c r="V17" t="s">
+      <c r="V17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="W17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="W17" t="s">
-        <v>5</v>
-      </c>
-      <c r="X17" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG17" t="s">
+      <c r="X17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH17" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>505</v>
       </c>
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="M18" s="4" t="s">
+      <c r="K18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N18" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N18" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S18" s="1" t="s">
+      <c r="O18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="T18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="T18" t="s">
+      <c r="U18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U18" t="s">
-        <v>4</v>
-      </c>
-      <c r="V18" t="s">
+      <c r="V18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="W18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="W18" t="s">
-        <v>5</v>
-      </c>
-      <c r="X18" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG18" t="s">
+      <c r="X18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH18" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -15039,13 +15123,14 @@
   <dimension ref="A1:AN18"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="AM11" sqref="AM11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="14.625" bestFit="1" customWidth="1"/>
     <col min="2" max="33" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="34" max="40" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.4">
@@ -15347,6 +15432,27 @@
       <c r="AG3" t="s">
         <v>2</v>
       </c>
+      <c r="AH3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
@@ -15448,6 +15554,27 @@
       <c r="AG4" t="s">
         <v>2</v>
       </c>
+      <c r="AH4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
@@ -15548,6 +15675,27 @@
       </c>
       <c r="AG5" t="s">
         <v>2</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.4">
@@ -19027,9 +19175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F46405-F0F0-4B0F-B610-E9CA4DF2CFC3}">
   <dimension ref="A1:AG19"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
-    </sheetView>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -24763,7 +24909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C07D05B3-0BCB-4360-85CB-F971A5910284}">
   <dimension ref="A1:AH19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
